--- a/data/Territoire_intelligent.xlsx
+++ b/data/Territoire_intelligent.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t xml:space="preserve">Numero</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multichoix 2 MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre besoins sur le territoire intelligent [Limité à 200 caractères]</t>
   </si>
   <si>
     <t xml:space="preserve">Autre besoins sur le territoire intelligent</t>
@@ -130,6 +133,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,6 +165,7 @@
     <font>
       <b val="true"/>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
     </font>
@@ -214,36 +219,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,9 +279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -282,9 +291,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6995880" y="10596960"/>
-          <a:ext cx="397800" cy="322200"/>
+          <a:ext cx="397440" cy="321840"/>
           <a:chOff x="6995880" y="10596960"/>
-          <a:chExt cx="397800" cy="322200"/>
+          <a:chExt cx="397440" cy="321840"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -295,13 +304,18 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6995880" y="10596960"/>
-            <a:ext cx="397800" cy="322200"/>
+            <a:ext cx="397440" cy="321840"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
-            <a:gdLst/>
+            <a:gdLst>
+              <a:gd name="textAreaLeft" fmla="*/ 0 w 397440"/>
+              <a:gd name="textAreaRight" fmla="*/ 397800 w 397440"/>
+              <a:gd name="textAreaTop" fmla="*/ 0 h 321840"/>
+              <a:gd name="textAreaBottom" fmla="*/ 322200 h 321840"/>
+            </a:gdLst>
             <a:ahLst/>
-            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
             <a:pathLst>
               <a:path w="398145" h="322580">
                 <a:moveTo>
@@ -354,7 +368,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6995880" y="10596960"/>
-            <a:ext cx="397800" cy="322200"/>
+            <a:ext cx="397440" cy="321840"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -382,8 +396,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="1" lang="fr-FR" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>8</a:t>
             </a:r>
@@ -514,266 +532,266 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
